--- a/Conditions/Version_2/YellowHappyStop.xlsx
+++ b/Conditions/Version_2/YellowHappyStop.xlsx
@@ -1,33 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Untitled/AGNG/Conditions/Version_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\AGNG\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1926F0-037A-8F4D-B489-7B2E266DD5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF61FA1-6F40-4236-90F6-3DED015F499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$71</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="86">
   <si>
     <t>Trial_No</t>
   </si>
   <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Block_SetShift_Event</t>
+  </si>
+  <si>
     <t>FaceE</t>
   </si>
   <si>
@@ -52,232 +55,229 @@
     <t>POST_ISI</t>
   </si>
   <si>
+    <t>FaceE_Luminance</t>
+  </si>
+  <si>
     <t>Colour_Luminance</t>
   </si>
   <si>
     <t>Images/Fearful/BF10_FO.jpg</t>
   </si>
   <si>
+    <t>Images/Fearful/HF04_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AF23HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/HF09_HE.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM16AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/WF05_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM22AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/BM08_HO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM19AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF02AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM13AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/HF09_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM04AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/BM03_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF32AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF26AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/BF09_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/BM01_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/BF14_HO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/WM11_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM02_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/HM09_HO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AM04HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF09AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM23AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM05AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AF28HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/BF14_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AF19HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF28AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM32AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM06_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF01_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AM10_HO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AM22HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM03_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/HM06_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/BF18_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM24AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM03AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/BM02_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/HF05_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AF32HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AM32HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF07FS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM30AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/BM01_HO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF19AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AF30HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF25AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF30AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/BF10_HO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AM24HAS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF21AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AM06_HC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/HM09_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM04_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AF11AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM10_FO.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/WF04_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/WF11_FC.jpg</t>
+  </si>
+  <si>
+    <t>Images/Fearful/AM17AFS.jpg</t>
+  </si>
+  <si>
+    <t>Images/Happy/AF27HAS.jpg</t>
+  </si>
+  <si>
     <t>Fear</t>
   </si>
   <si>
+    <t>Happy</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
+    <t>Yellow</t>
+  </si>
+  <si>
     <t>Go</t>
   </si>
   <si>
+    <t>Inhibit</t>
+  </si>
+  <si>
     <t>Images/Blue.jpg</t>
   </si>
   <si>
+    <t>Images/Yellow.jpg</t>
+  </si>
+  <si>
     <t>space</t>
   </si>
   <si>
-    <t>Images/Fearful/HF04_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AF23HAS.jpg</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Inhibit</t>
-  </si>
-  <si>
-    <t>Images/Yellow.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/HF09_HE.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM16AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/WF05_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM22AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/BM08_HO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM19AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF02AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM13AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/HF09_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM04AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/BM03_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF32AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF26AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/BF09_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/BM01_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/BF14_HO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/WM11_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM02_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/HM09_HO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AM04HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF09AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM23AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM05AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AF28HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/BF14_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AF19HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF28AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM32AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM06_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF01_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AM10_HO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AM22HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM03_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/HM06_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/BF18_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM24AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM03AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/BM02_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/HF05_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AF32HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AM32HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF07FS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM30AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/BM01_HO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF19AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AF30HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF25AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF30AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/BF10_HO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AM24HAS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF21AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AM06_HC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/HM09_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM04_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AF11AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM10_FO.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/WF04_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/WF11_FC.jpg</t>
-  </si>
-  <si>
-    <t>Images/Fearful/AM17AFS.jpg</t>
-  </si>
-  <si>
-    <t>Images/Happy/AF27HAS.jpg</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Block_SetShift_Event</t>
-  </si>
-  <si>
-    <t>FaceE_Luminance</t>
+    <t>Block_Trial_No</t>
   </si>
 </sst>
 </file>
@@ -295,8 +295,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,9 +359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +399,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -431,6 +433,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -465,9 +468,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,56 +645,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -698,2816 +705,3025 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2">
         <v>1.3048999999999999</v>
       </c>
-      <c r="K2">
-        <v>2.0714000000000001</v>
-      </c>
       <c r="L2">
+        <v>1.619083147809274</v>
+      </c>
+      <c r="M2">
         <v>5.76010346412658E-2</v>
       </c>
-      <c r="M2">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3">
         <v>1.4339</v>
       </c>
-      <c r="K3">
-        <v>2.1791999999999998</v>
-      </c>
       <c r="L3">
+        <v>1.5</v>
+      </c>
+      <c r="M3">
         <v>6.2853708863258306E-2</v>
       </c>
-      <c r="M3">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4">
         <v>1.2238</v>
       </c>
-      <c r="K4">
-        <v>2.2887</v>
-      </c>
       <c r="L4">
+        <v>4.01</v>
+      </c>
+      <c r="M4">
         <v>0.1015975475311279</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5">
         <v>1.2685999999999999</v>
       </c>
-      <c r="K5">
-        <v>2.0758000000000001</v>
-      </c>
       <c r="L5">
+        <v>4.01</v>
+      </c>
+      <c r="M5">
         <v>8.1457927823066698E-2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6">
         <v>1.2712000000000001</v>
       </c>
-      <c r="K6">
-        <v>2.0276999999999998</v>
-      </c>
       <c r="L6">
+        <v>1.874437682939301</v>
+      </c>
+      <c r="M6">
         <v>9.4173111021518693E-2</v>
       </c>
-      <c r="M6">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7">
         <v>1.3841000000000001</v>
       </c>
-      <c r="K7">
-        <v>2.2086999999999999</v>
-      </c>
       <c r="L7">
+        <v>2.073529442180106</v>
+      </c>
+      <c r="M7">
         <v>0.11008480936288829</v>
       </c>
-      <c r="M7">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8">
         <v>1.2416</v>
       </c>
-      <c r="K8">
-        <v>2.2637999999999998</v>
-      </c>
       <c r="L8">
+        <v>2.8351468455044362</v>
+      </c>
+      <c r="M8">
         <v>0.10542479157447809</v>
       </c>
-      <c r="M8">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9">
         <v>1.407</v>
       </c>
-      <c r="K9">
-        <v>2.5249999999999999</v>
-      </c>
       <c r="L9">
+        <v>2.423550389771346</v>
+      </c>
+      <c r="M9">
         <v>5.9973910450935301E-2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10">
         <v>1.159</v>
       </c>
-      <c r="K10">
-        <v>2.5499999999999998</v>
-      </c>
       <c r="L10">
+        <v>4.01</v>
+      </c>
+      <c r="M10">
         <v>0.104644700884819</v>
       </c>
-      <c r="M10">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11">
         <v>1.1203000000000001</v>
       </c>
-      <c r="K11">
-        <v>2.3546999999999998</v>
-      </c>
       <c r="L11">
+        <v>4.01</v>
+      </c>
+      <c r="M11">
         <v>0.1022677645087242</v>
       </c>
-      <c r="M11">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12">
         <v>1.1912</v>
       </c>
-      <c r="K12">
-        <v>2.1533000000000002</v>
-      </c>
       <c r="L12">
+        <v>2.4900921241778322</v>
+      </c>
+      <c r="M12">
         <v>0.1026095449924469</v>
       </c>
-      <c r="M12">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13">
         <v>1.2461</v>
       </c>
-      <c r="K13">
-        <v>2.3363</v>
-      </c>
       <c r="L13">
+        <v>4.01</v>
+      </c>
+      <c r="M13">
         <v>6.4338825643062494E-2</v>
       </c>
-      <c r="M13">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
         <v>1.2706999999999999</v>
       </c>
-      <c r="K14">
-        <v>2.4264000000000001</v>
-      </c>
       <c r="L14">
+        <v>1.968748915105293</v>
+      </c>
+      <c r="M14">
         <v>0.10146737098693839</v>
       </c>
-      <c r="M14">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
         <v>1.1627000000000001</v>
       </c>
-      <c r="K15">
-        <v>2.0272000000000001</v>
-      </c>
       <c r="L15">
+        <v>2.6354541183762992</v>
+      </c>
+      <c r="M15">
         <v>6.2148910015821401E-2</v>
       </c>
-      <c r="M15">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
         <v>1.2613000000000001</v>
       </c>
-      <c r="K16">
-        <v>2.5249999999999999</v>
-      </c>
       <c r="L16">
+        <v>2.655397515280046</v>
+      </c>
+      <c r="M16">
         <v>9.98872891068458E-2</v>
       </c>
-      <c r="M16">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
         <v>1.1904999999999999</v>
       </c>
-      <c r="K17">
-        <v>1.9498</v>
-      </c>
       <c r="L17">
+        <v>2.103195322273665</v>
+      </c>
+      <c r="M17">
         <v>0.1035243049263954</v>
       </c>
-      <c r="M17">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
         <v>1.3515999999999999</v>
       </c>
-      <c r="K18">
-        <v>2.0815999999999999</v>
-      </c>
       <c r="L18">
+        <v>2.8021955727908199</v>
+      </c>
+      <c r="M18">
         <v>7.5582906603813102E-2</v>
       </c>
-      <c r="M18">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
         <v>1.1205000000000001</v>
       </c>
-      <c r="K19">
-        <v>2.3178000000000001</v>
-      </c>
       <c r="L19">
+        <v>2.5793227115708852</v>
+      </c>
+      <c r="M19">
         <v>7.6717026531696306E-2</v>
       </c>
-      <c r="M19">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20">
         <v>1.2024999999999999</v>
       </c>
-      <c r="K20">
-        <v>2.3997999999999999</v>
-      </c>
       <c r="L20">
+        <v>2.0121068013960102</v>
+      </c>
+      <c r="M20">
         <v>8.8205337524413993E-2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
         <v>1.2821</v>
       </c>
-      <c r="K21">
-        <v>2.1358999999999999</v>
-      </c>
       <c r="L21">
+        <v>2.240025935481337</v>
+      </c>
+      <c r="M21">
         <v>0.1083246394991874</v>
       </c>
-      <c r="M21">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22">
+        <v>82</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
         <v>1.3831</v>
       </c>
-      <c r="K22">
-        <v>2.0476000000000001</v>
-      </c>
       <c r="L22">
+        <v>2.2942475340404078</v>
+      </c>
+      <c r="M22">
         <v>0.119314007461071</v>
       </c>
-      <c r="M22">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23">
         <v>1.2444</v>
       </c>
-      <c r="K23">
-        <v>2.5499999999999998</v>
-      </c>
       <c r="L23">
+        <v>4.01</v>
+      </c>
+      <c r="M23">
         <v>9.1825567185878698E-2</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24">
         <v>1.2028000000000001</v>
       </c>
-      <c r="K24">
-        <v>2.5249999999999999</v>
-      </c>
       <c r="L24">
+        <v>1.764523913530557</v>
+      </c>
+      <c r="M24">
         <v>0.10315884649753571</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25">
+        <v>82</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
         <v>1.4098999999999999</v>
       </c>
-      <c r="K25">
-        <v>2.4496000000000002</v>
-      </c>
       <c r="L25">
+        <v>2.105292241672124</v>
+      </c>
+      <c r="M25">
         <v>9.6224576234817505E-2</v>
       </c>
-      <c r="M25">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
         <v>1.1269</v>
       </c>
-      <c r="K26">
-        <v>2.2218</v>
-      </c>
       <c r="L26">
+        <v>4.01</v>
+      </c>
+      <c r="M26">
         <v>0.1031950190663337</v>
       </c>
-      <c r="M26">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27">
+        <v>82</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
         <v>1.0630999999999999</v>
       </c>
-      <c r="K27">
-        <v>1.9939</v>
-      </c>
       <c r="L27">
+        <v>2.4818347215131831</v>
+      </c>
+      <c r="M27">
         <v>0.1017294898629188</v>
       </c>
-      <c r="M27">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28">
         <v>1.2874000000000001</v>
       </c>
-      <c r="K28">
-        <v>1.9882</v>
-      </c>
       <c r="L28">
+        <v>2.1247206217029651</v>
+      </c>
+      <c r="M28">
         <v>9.0989500284194905E-2</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29">
+        <v>82</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
         <v>1.2073</v>
       </c>
-      <c r="K29">
-        <v>2.3332000000000002</v>
-      </c>
       <c r="L29">
+        <v>4.01</v>
+      </c>
+      <c r="M29">
         <v>6.5678805112838703E-2</v>
       </c>
-      <c r="M29">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30">
         <v>1.1632</v>
       </c>
-      <c r="K30">
-        <v>2.3067000000000002</v>
-      </c>
       <c r="L30">
+        <v>2.0014313668547352</v>
+      </c>
+      <c r="M30">
         <v>0.1045581176877021</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31">
+        <v>82</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31">
         <v>1.3102</v>
       </c>
-      <c r="K31">
-        <v>2.5499999999999998</v>
-      </c>
       <c r="L31">
+        <v>4.01</v>
+      </c>
+      <c r="M31">
         <v>0.1022682785987854</v>
       </c>
-      <c r="M31">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32">
         <v>1.2706999999999999</v>
       </c>
-      <c r="K32">
-        <v>2.3658999999999999</v>
-      </c>
       <c r="L32">
+        <v>2.590397194713022</v>
+      </c>
+      <c r="M32">
         <v>0.1033238396048545</v>
       </c>
-      <c r="M32">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33">
+        <v>82</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33">
         <v>1.2020999999999999</v>
       </c>
-      <c r="K33">
-        <v>1.8167</v>
-      </c>
       <c r="L33">
+        <v>3.217001710117835</v>
+      </c>
+      <c r="M33">
         <v>8.1029146909713703E-2</v>
       </c>
-      <c r="M33">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34">
         <v>1.1412</v>
       </c>
-      <c r="K34">
-        <v>2.4681999999999999</v>
-      </c>
       <c r="L34">
+        <v>2.583670726528335</v>
+      </c>
+      <c r="M34">
         <v>0.1094077378511428</v>
       </c>
-      <c r="M34">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35">
         <v>1.3242</v>
       </c>
-      <c r="K35">
-        <v>1.9455</v>
-      </c>
       <c r="L35">
+        <v>2.4327920059857302</v>
+      </c>
+      <c r="M35">
         <v>8.7252728641033103E-2</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36">
         <v>1.3052999999999999</v>
       </c>
-      <c r="K36">
-        <v>2.1021000000000001</v>
-      </c>
       <c r="L36">
+        <v>1.8248911780061969</v>
+      </c>
+      <c r="M36">
         <v>0.1037059053778648</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37">
+        <v>82</v>
+      </c>
+      <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37">
         <v>1.2419</v>
       </c>
-      <c r="K37">
-        <v>1.9228000000000001</v>
-      </c>
       <c r="L37">
+        <v>2.0695248787348599</v>
+      </c>
+      <c r="M37">
         <v>0.10915260761976241</v>
       </c>
-      <c r="M37">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
         <v>1.2737000000000001</v>
       </c>
-      <c r="K38">
-        <v>1.9231</v>
-      </c>
       <c r="L38">
+        <v>1.733289345171559</v>
+      </c>
+      <c r="M38">
         <v>0.119314007461071</v>
       </c>
-      <c r="M38">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39">
+        <v>82</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39">
         <v>1.3017000000000001</v>
       </c>
-      <c r="K39">
-        <v>2.3732000000000002</v>
-      </c>
       <c r="L39">
+        <v>2.4671570780254641</v>
+      </c>
+      <c r="M39">
         <v>0.1123785153031349</v>
       </c>
-      <c r="M39">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40">
+        <v>82</v>
+      </c>
+      <c r="J40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40">
         <v>1.2659</v>
       </c>
-      <c r="K40">
-        <v>1.9071</v>
-      </c>
       <c r="L40">
+        <v>2.596319924105889</v>
+      </c>
+      <c r="M40">
         <v>6.1313163489103303E-2</v>
       </c>
-      <c r="M40">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41">
         <v>1.2121</v>
       </c>
-      <c r="K41">
-        <v>2.3698999999999999</v>
-      </c>
       <c r="L41">
+        <v>1.5</v>
+      </c>
+      <c r="M41">
         <v>0.1094077378511428</v>
       </c>
-      <c r="M41">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42">
+        <v>82</v>
+      </c>
+      <c r="J42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42">
         <v>1.2665</v>
       </c>
-      <c r="K42">
-        <v>2.3180000000000001</v>
-      </c>
       <c r="L42">
+        <v>4.01</v>
+      </c>
+      <c r="M42">
         <v>0.1071851700544357</v>
       </c>
-      <c r="M42">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43">
         <v>1.3412999999999999</v>
       </c>
-      <c r="K43">
-        <v>1.7599</v>
-      </c>
       <c r="L43">
+        <v>2.2004821304584969</v>
+      </c>
+      <c r="M43">
         <v>0.1072093844413757</v>
       </c>
-      <c r="M43">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44">
+        <v>82</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44">
         <v>1.4648000000000001</v>
       </c>
-      <c r="K44">
-        <v>2.2269999999999999</v>
-      </c>
       <c r="L44">
+        <v>1.5</v>
+      </c>
+      <c r="M44">
         <v>6.2040828168392098E-2</v>
       </c>
-      <c r="M44">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45">
         <v>1.2049000000000001</v>
       </c>
-      <c r="K45">
-        <v>2.3490000000000002</v>
-      </c>
       <c r="L45">
+        <v>2.7949110646767239</v>
+      </c>
+      <c r="M45">
         <v>6.4732171595096505E-2</v>
       </c>
-      <c r="M45">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
         <v>1.2083999999999999</v>
       </c>
-      <c r="K46">
-        <v>2.5249999999999999</v>
-      </c>
       <c r="L46">
+        <v>2.3847047144459519</v>
+      </c>
+      <c r="M46">
         <v>9.7025342285633018E-2</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47">
         <v>1.3388</v>
       </c>
-      <c r="K47">
-        <v>1.8010999999999999</v>
-      </c>
       <c r="L47">
+        <v>2.376122125419978</v>
+      </c>
+      <c r="M47">
         <v>8.5606746375560705E-2</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48">
         <v>1.3080000000000001</v>
       </c>
-      <c r="K48">
-        <v>2.5499999999999998</v>
-      </c>
       <c r="L48">
+        <v>4.01</v>
+      </c>
+      <c r="M48">
         <v>0.1050159484148025</v>
       </c>
-      <c r="M48">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+      <c r="K49">
         <v>1.407</v>
       </c>
-      <c r="K49">
-        <v>2.2265999999999999</v>
-      </c>
       <c r="L49">
+        <v>2.0607258534632882</v>
+      </c>
+      <c r="M49">
         <v>0.1047914400696754</v>
       </c>
-      <c r="M49">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50">
         <v>1.2996000000000001</v>
       </c>
-      <c r="K50">
-        <v>1.9708000000000001</v>
-      </c>
       <c r="L50">
+        <v>1.9302584051453799</v>
+      </c>
+      <c r="M50">
         <v>8.9495837688446003E-2</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51">
         <v>1.2195</v>
       </c>
-      <c r="K51">
-        <v>1.8608</v>
-      </c>
       <c r="L51">
+        <v>2.6634446116139139</v>
+      </c>
+      <c r="M51">
         <v>0.1123785153031349</v>
       </c>
-      <c r="M51">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52">
         <v>1.3002</v>
       </c>
-      <c r="K52">
-        <v>2.1518000000000002</v>
-      </c>
       <c r="L52">
+        <v>2.1434929934289961</v>
+      </c>
+      <c r="M52">
         <v>0.103626012802124</v>
       </c>
-      <c r="M52">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53">
         <v>1.3442000000000001</v>
       </c>
-      <c r="K53">
-        <v>2.4350000000000001</v>
-      </c>
       <c r="L53">
+        <v>1.6508298674999879</v>
+      </c>
+      <c r="M53">
         <v>0.10608552396297451</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54">
         <v>1.3197000000000001</v>
       </c>
-      <c r="K54">
-        <v>2.1675</v>
-      </c>
       <c r="L54">
+        <v>2.1458788229419059</v>
+      </c>
+      <c r="M54">
         <v>0.10232310742139809</v>
       </c>
-      <c r="M54">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55">
         <v>1.2930999999999999</v>
       </c>
-      <c r="K55">
-        <v>2.5249999999999999</v>
-      </c>
       <c r="L55">
+        <v>2.1678810808311879</v>
+      </c>
+      <c r="M55">
         <v>0.11101345717906951</v>
       </c>
-      <c r="M55">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56">
         <v>1.3407</v>
       </c>
-      <c r="K56">
-        <v>1.83</v>
-      </c>
       <c r="L56">
+        <v>1.746740172437288</v>
+      </c>
+      <c r="M56">
         <v>8.7890632450580597E-2</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57">
         <v>1.3493999999999999</v>
       </c>
-      <c r="K57">
-        <v>2.1968999999999999</v>
-      </c>
       <c r="L57">
+        <v>1.726183176411715</v>
+      </c>
+      <c r="M57">
         <v>8.1029146909713703E-2</v>
       </c>
-      <c r="M57">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+      <c r="K58">
         <v>1.3674999999999999</v>
       </c>
-      <c r="K58">
-        <v>1.8806</v>
-      </c>
       <c r="L58">
+        <v>2.363049671907052</v>
+      </c>
+      <c r="M58">
         <v>8.4430716931819902E-2</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+      <c r="K59">
         <v>1.3050999999999999</v>
       </c>
-      <c r="K59">
-        <v>2.2927</v>
-      </c>
       <c r="L59">
+        <v>2.0867631247206981</v>
+      </c>
+      <c r="M59">
         <v>0.10679984837770461</v>
       </c>
-      <c r="M59">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60">
         <v>1.2358</v>
       </c>
-      <c r="K60">
-        <v>2.4262000000000001</v>
-      </c>
       <c r="L60">
+        <v>2.765293370305403</v>
+      </c>
+      <c r="M60">
         <v>7.8584246337413705E-2</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.475049</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61">
         <v>1.2625</v>
       </c>
-      <c r="K61">
-        <v>2.0926999999999998</v>
-      </c>
       <c r="L61">
+        <v>2.0541473138987598</v>
+      </c>
+      <c r="M61">
         <v>6.2853708863258306E-2</v>
       </c>
-      <c r="M61">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>84</v>
+      </c>
+      <c r="K62">
         <v>1.3526</v>
       </c>
-      <c r="K62">
-        <v>1.5359</v>
-      </c>
       <c r="L62">
+        <v>4.01</v>
+      </c>
+      <c r="M62">
         <v>6.2148910015821401E-2</v>
       </c>
-      <c r="M62">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s">
+        <v>84</v>
+      </c>
+      <c r="K63">
         <v>1.1806000000000001</v>
       </c>
-      <c r="K63">
-        <v>2.2507000000000001</v>
-      </c>
       <c r="L63">
+        <v>3.0516236501413481</v>
+      </c>
+      <c r="M63">
         <v>6.8713530898094094E-2</v>
       </c>
-      <c r="M63">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K64">
         <v>1.2813000000000001</v>
       </c>
-      <c r="K64">
-        <v>2.3113999999999999</v>
-      </c>
       <c r="L64">
+        <v>1.813199671021017</v>
+      </c>
+      <c r="M64">
         <v>0.1153270304203033</v>
       </c>
-      <c r="M64">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65">
         <v>1.2165999999999999</v>
       </c>
-      <c r="K65">
-        <v>2.3031000000000001</v>
-      </c>
       <c r="L65">
+        <v>1.8054545293306561</v>
+      </c>
+      <c r="M65">
         <v>0.1024477630853653</v>
       </c>
-      <c r="M65">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66">
         <v>1.2524</v>
       </c>
-      <c r="K66">
-        <v>2.5499999999999998</v>
-      </c>
       <c r="L66">
+        <v>2.5837215560783018</v>
+      </c>
+      <c r="M66">
         <v>0.10947120934724799</v>
       </c>
-      <c r="M66">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s">
+        <v>84</v>
+      </c>
+      <c r="K67">
         <v>1.3587</v>
       </c>
-      <c r="K67">
-        <v>1.9269000000000001</v>
-      </c>
       <c r="L67">
+        <v>1.7031391337143851</v>
+      </c>
+      <c r="M67">
         <v>0.1067722216248512</v>
       </c>
-      <c r="M67">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68">
         <v>1.2662</v>
       </c>
-      <c r="K68">
-        <v>2.3734999999999999</v>
-      </c>
       <c r="L68">
+        <v>2.535551517896188</v>
+      </c>
+      <c r="M68">
         <v>0.1022682785987854</v>
       </c>
-      <c r="M68">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s">
+        <v>84</v>
+      </c>
+      <c r="K69">
         <v>1.2539</v>
       </c>
-      <c r="K69">
-        <v>2.5249999999999999</v>
-      </c>
       <c r="L69">
+        <v>4.01</v>
+      </c>
+      <c r="M69">
         <v>0.1075524315237999</v>
       </c>
-      <c r="M69">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70">
         <v>1.1344000000000001</v>
       </c>
-      <c r="K70">
-        <v>1.7464999999999999</v>
-      </c>
       <c r="L70">
+        <v>1.761428354045808</v>
+      </c>
+      <c r="M70">
         <v>0.1049333214759826</v>
       </c>
-      <c r="M70">
-        <v>0.174042</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>0.174042</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
         <v>81</v>
       </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71">
+      <c r="I71" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71">
         <v>1.3133999999999999</v>
       </c>
-      <c r="K71">
-        <v>2.2814999999999999</v>
-      </c>
       <c r="L71">
+        <v>4.01</v>
+      </c>
+      <c r="M71">
         <v>9.9185302853584206E-2</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>0.475049</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>